--- a/OR1_1219/2021.03.09_OR1-1217_OR1-1219_macro_sorting.xlsx
+++ b/OR1_1219/2021.03.09_OR1-1217_OR1-1219_macro_sorting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Data\Sorting data\OR1_1219\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Sorting data\sorting_data_curate\OR1_1219\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69E7650-8951-4893-AA83-D03139ED8A59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FCB3FD-1E5B-4204-B977-A64D782FFAC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4645,7 +4645,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A457" sqref="A457:XFD457"/>
+      <selection pane="bottomLeft" activeCell="J465" sqref="J465:J651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -11031,7 +11031,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" s="28" t="s">
         <v>386</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="28" t="s">
         <v>386</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" s="28" t="s">
         <v>386</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" s="28" t="s">
         <v>386</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235" s="28" t="s">
         <v>386</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="451" spans="1:13">
+    <row r="451" spans="1:13" hidden="1">
       <c r="A451" s="28" t="s">
         <v>173</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="452" spans="1:13">
+    <row r="452" spans="1:13" hidden="1">
       <c r="A452" s="28" t="s">
         <v>173</v>
       </c>
@@ -17544,7 +17544,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" hidden="1">
       <c r="A453" s="28" t="s">
         <v>173</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="454" spans="1:13">
+    <row r="454" spans="1:13" hidden="1">
       <c r="A454" s="28" t="s">
         <v>173</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" hidden="1">
       <c r="A455" s="28" t="s">
         <v>173</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" hidden="1">
       <c r="A456" s="28" t="s">
         <v>173</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="457" spans="1:13">
+    <row r="457" spans="1:13" hidden="1">
       <c r="A457" s="28" t="s">
         <v>173</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="458" spans="1:13">
+    <row r="458" spans="1:13" hidden="1">
       <c r="A458" s="28" t="s">
         <v>173</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="465" spans="1:17" hidden="1">
+    <row r="465" spans="1:17">
       <c r="A465" s="28" t="s">
         <v>173</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>360</v>
       </c>
       <c r="J465" s="16" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="L465" s="16">
         <v>5</v>
@@ -19490,7 +19490,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="520" spans="1:13">
+    <row r="520" spans="1:13" hidden="1">
       <c r="A520" s="28" t="s">
         <v>173</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="521" spans="1:13">
+    <row r="521" spans="1:13" hidden="1">
       <c r="A521" s="28" t="s">
         <v>173</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:13">
+    <row r="522" spans="1:13" hidden="1">
       <c r="A522" s="28" t="s">
         <v>173</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="523" spans="1:13">
+    <row r="523" spans="1:13" hidden="1">
       <c r="A523" s="28" t="s">
         <v>173</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="524" spans="1:13">
+    <row r="524" spans="1:13" hidden="1">
       <c r="A524" s="28" t="s">
         <v>173</v>
       </c>
@@ -19635,7 +19635,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="525" spans="1:13">
+    <row r="525" spans="1:13" hidden="1">
       <c r="A525" s="28" t="s">
         <v>173</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="526" spans="1:13">
+    <row r="526" spans="1:13" hidden="1">
       <c r="A526" s="28" t="s">
         <v>173</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="527" spans="1:13">
+    <row r="527" spans="1:13" hidden="1">
       <c r="A527" s="28" t="s">
         <v>173</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="528" spans="1:13">
+    <row r="528" spans="1:13" hidden="1">
       <c r="A528" s="28" t="s">
         <v>173</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="529" spans="1:13">
+    <row r="529" spans="1:13" hidden="1">
       <c r="A529" s="28" t="s">
         <v>173</v>
       </c>
@@ -19780,7 +19780,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="530" spans="1:13">
+    <row r="530" spans="1:13" hidden="1">
       <c r="A530" s="28" t="s">
         <v>173</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="531" spans="1:13">
+    <row r="531" spans="1:13" hidden="1">
       <c r="A531" s="28" t="s">
         <v>173</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="636" spans="1:17" hidden="1">
+    <row r="636" spans="1:17">
       <c r="A636" s="28" t="s">
         <v>173</v>
       </c>
@@ -22874,7 +22874,7 @@
         <v>360</v>
       </c>
       <c r="J636" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L636" s="1">
         <v>0.2</v>
@@ -22886,7 +22886,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="637" spans="1:17" hidden="1">
+    <row r="637" spans="1:17">
       <c r="A637" s="28" t="s">
         <v>173</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>360</v>
       </c>
       <c r="J637" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L637" s="1">
         <v>0.15</v>
@@ -22918,7 +22918,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="638" spans="1:17" hidden="1">
+    <row r="638" spans="1:17">
       <c r="A638" s="28" t="s">
         <v>173</v>
       </c>
@@ -22938,7 +22938,7 @@
         <v>360</v>
       </c>
       <c r="J638" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L638" s="1">
         <v>0.2</v>
@@ -22950,7 +22950,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="639" spans="1:17" hidden="1">
+    <row r="639" spans="1:17">
       <c r="A639" s="28" t="s">
         <v>173</v>
       </c>
@@ -22970,7 +22970,7 @@
         <v>360</v>
       </c>
       <c r="J639" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L639" s="1">
         <v>0.2</v>
@@ -22982,7 +22982,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="640" spans="1:17" hidden="1">
+    <row r="640" spans="1:17">
       <c r="A640" s="30" t="s">
         <v>173</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>360</v>
       </c>
       <c r="J640" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L640" s="1">
         <v>0.15</v>
@@ -23014,7 +23014,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="641" spans="1:17" hidden="1">
+    <row r="641" spans="1:17">
       <c r="A641" s="28" t="s">
         <v>173</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>360</v>
       </c>
       <c r="J641" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L641" s="1">
         <v>0.1</v>
@@ -23046,7 +23046,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="642" spans="1:17" hidden="1">
+    <row r="642" spans="1:17">
       <c r="A642" s="28" t="s">
         <v>173</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>360</v>
       </c>
       <c r="J642" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L642" s="1">
         <v>0.1</v>
@@ -23078,7 +23078,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="643" spans="1:17" hidden="1">
+    <row r="643" spans="1:17">
       <c r="A643" s="28" t="s">
         <v>173</v>
       </c>
@@ -23098,7 +23098,7 @@
         <v>360</v>
       </c>
       <c r="J643" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L643" s="1">
         <v>0.1</v>
@@ -23110,7 +23110,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="644" spans="1:17" hidden="1">
+    <row r="644" spans="1:17">
       <c r="A644" s="28" t="s">
         <v>173</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>360</v>
       </c>
       <c r="J644" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L644" s="1">
         <v>0.1</v>
@@ -23142,7 +23142,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="645" spans="1:17" hidden="1">
+    <row r="645" spans="1:17">
       <c r="A645" s="28" t="s">
         <v>173</v>
       </c>
@@ -23162,7 +23162,7 @@
         <v>360</v>
       </c>
       <c r="J645" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L645" s="1">
         <v>0.1</v>
@@ -23174,7 +23174,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="646" spans="1:17" hidden="1">
+    <row r="646" spans="1:17">
       <c r="A646" s="28" t="s">
         <v>173</v>
       </c>
@@ -23194,7 +23194,7 @@
         <v>360</v>
       </c>
       <c r="J646" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L646" s="1">
         <v>0.2</v>
@@ -23206,7 +23206,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="647" spans="1:17" hidden="1">
+    <row r="647" spans="1:17">
       <c r="A647" s="28" t="s">
         <v>173</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>360</v>
       </c>
       <c r="J647" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L647" s="1">
         <v>0.2</v>
@@ -23238,7 +23238,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="648" spans="1:17" hidden="1">
+    <row r="648" spans="1:17">
       <c r="A648" s="30" t="s">
         <v>173</v>
       </c>
@@ -23258,7 +23258,7 @@
         <v>360</v>
       </c>
       <c r="J648" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L648" s="1">
         <v>0.2</v>
@@ -23270,7 +23270,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="649" spans="1:17" hidden="1">
+    <row r="649" spans="1:17">
       <c r="A649" s="28" t="s">
         <v>173</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>360</v>
       </c>
       <c r="J649" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L649" s="1">
         <v>0.3</v>
@@ -23302,7 +23302,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="650" spans="1:17" hidden="1">
+    <row r="650" spans="1:17">
       <c r="A650" s="28" t="s">
         <v>173</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>360</v>
       </c>
       <c r="J650" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L650" s="1">
         <v>0.1</v>
@@ -23334,7 +23334,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="651" spans="1:17" hidden="1">
+    <row r="651" spans="1:17">
       <c r="A651" s="28" t="s">
         <v>173</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>360</v>
       </c>
       <c r="J651" s="16" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="L651" s="1">
         <v>0.1</v>
@@ -25949,14 +25949,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q746" xr:uid="{B1DD10EF-B689-4941-88DB-FA12DC3A579C}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="S7"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="Bivalvia"/>
+        <filter val="Hydrozoa"/>
       </filters>
     </filterColumn>
   </autoFilter>
